--- a/Daejeon_People_Server/API Document 0531.xlsx
+++ b/Daejeon_People_Server/API Document 0531.xlsx
@@ -19,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="135">
-  <si>
-    <t>Function Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="137">
+  <si>
+    <t>Function Category</t>
   </si>
   <si>
     <t>Summary</t>
@@ -57,323 +57,301 @@
     <t>회원가입</t>
   </si>
   <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/signup</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>이메일 인증번호 발송</t>
+  </si>
+  <si>
+    <t>/signup/email/demand</t>
+  </si>
+  <si>
+    <t>email : String</t>
+  </si>
+  <si>
+    <t>핸드폰 인증번호 확인</t>
+  </si>
+  <si>
+    <t>/signup/phone/verify</t>
+  </si>
+  <si>
+    <t>이메일 중복 체크</t>
+  </si>
+  <si>
+    <t>/signup/email/check</t>
+  </si>
+  <si>
+    <t>핸드폰 번호 중복 체크</t>
+  </si>
+  <si>
+    <t>/signup/phone/check</t>
+  </si>
+  <si>
+    <t>number : String</t>
+  </si>
+  <si>
+    <t>핸드폰 인증번호 발송</t>
+  </si>
+  <si>
+    <t>/signup/phone/demand</t>
+  </si>
+  <si>
     <t>이메일 인증번호 확인</t>
   </si>
   <si>
-    <t>POST</t>
-  </si>
-  <si>
     <t>/signup/email/verify</t>
   </si>
   <si>
-    <t>X</t>
+    <t>ID 중복 체크</t>
+  </si>
+  <si>
+    <t>/signup/id/check</t>
+  </si>
+  <si>
+    <t>id : String</t>
+  </si>
+  <si>
+    <t>친구</t>
+  </si>
+  <si>
+    <t>사용자 검색</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/find_user</t>
+  </si>
+  <si>
+    <t>keyword : String</t>
+  </si>
+  <si>
+    <t>친구 요청 거절</t>
+  </si>
+  <si>
+    <t>/friend/refuse</t>
+  </si>
+  <si>
+    <t>requester_id : String</t>
+  </si>
+  <si>
+    <t>친구 목록</t>
+  </si>
+  <si>
+    <t>/friend</t>
+  </si>
+  <si>
+    <t>친구 요청 목록 조회</t>
+  </si>
+  <si>
+    <t>/friend/request</t>
+  </si>
+  <si>
+    <t>친구 요청 수락</t>
+  </si>
+  <si>
+    <t>/friend/accept</t>
+  </si>
+  <si>
+    <t>친구 요청</t>
+  </si>
+  <si>
+    <t>dst : String</t>
+  </si>
+  <si>
+    <t>친구 삭제</t>
+  </si>
+  <si>
+    <t>/friend/delete</t>
+  </si>
+  <si>
+    <t>위시리스트</t>
+  </si>
+  <si>
+    <t>위시리스트 조회</t>
+  </si>
+  <si>
+    <t>/wish</t>
+  </si>
+  <si>
+    <t>content_id : int</t>
+  </si>
+  <si>
+    <t>위시리스트 추가</t>
+  </si>
+  <si>
+    <t>위시리스트에서 여행지 삭제</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>여행지 정보</t>
+  </si>
+  <si>
+    <t>카테고리 없는 여행지 리스트 조회</t>
+  </si>
+  <si>
+    <t>/attractions/list/total</t>
+  </si>
+  <si>
+    <t>카테고리 지정된 여행지 리스트 조회</t>
+  </si>
+  <si>
+    <t>/attractions/list</t>
+  </si>
+  <si>
+    <t>여행지 세부 정보 조회</t>
+  </si>
+  <si>
+    <t>/attractions/detail</t>
+  </si>
+  <si>
+    <t>여행 모드 내부</t>
+  </si>
+  <si>
+    <t>지도에 여행지 추가</t>
+  </si>
+  <si>
+    <t>/map</t>
+  </si>
+  <si>
+    <t>지도에 추가된 핀포인트 조회</t>
+  </si>
+  <si>
+    <t>topic : String</t>
+  </si>
+  <si>
+    <t>여행 나가기</t>
+  </si>
+  <si>
+    <t>/travel/quit</t>
+  </si>
+  <si>
+    <t>여행에 유저 초대</t>
+  </si>
+  <si>
+    <t>/travel/invite</t>
+  </si>
+  <si>
+    <t>여행(채팅방) 정보 조회</t>
+  </si>
+  <si>
+    <t>/travel/info</t>
+  </si>
+  <si>
+    <t>여행 모드</t>
+  </si>
+  <si>
+    <t>여행 초대 수락</t>
+  </si>
+  <si>
+    <t>/travel/accept</t>
+  </si>
+  <si>
+    <t>여행 모드(채팅방) 생성 - 채팅방 참가 포함</t>
+  </si>
+  <si>
+    <t>/travel</t>
+  </si>
+  <si>
+    <t>title : String</t>
+  </si>
+  <si>
+    <t>여행 삭제</t>
+  </si>
+  <si>
+    <t>초대받은 여행 리스트 조회</t>
+  </si>
+  <si>
+    <t>활성화된 여행 리스트 조회</t>
+  </si>
+  <si>
+    <t>여행 초대 거절</t>
+  </si>
+  <si>
+    <t>/travel/refuse</t>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+  </si>
+  <si>
+    <t>/find/id/demand</t>
+  </si>
+  <si>
+    <t>인증번호 확인 후 이메일로 아이디 전송</t>
+  </si>
+  <si>
+    <t>/find/id/verify</t>
+  </si>
+  <si>
+    <t>사용자</t>
+  </si>
+  <si>
+    <t>프로필 이미지 세팅</t>
+  </si>
+  <si>
+    <t>/profile-image</t>
+  </si>
+  <si>
+    <t>png 이미지 파일</t>
+  </si>
+  <si>
+    <t>ID 기반 사용자 정보 조회</t>
+  </si>
+  <si>
+    <t>/user</t>
+  </si>
+  <si>
+    <t>마이페이지</t>
+  </si>
+  <si>
+    <t>/mypage</t>
+  </si>
+  <si>
+    <t>프로필 사진 조회</t>
+  </si>
+  <si>
+    <t>프로필 이미지 파일</t>
   </si>
   <si>
     <t>비밀번호 찾기</t>
   </si>
   <si>
-    <t>이메일 인증번호 발송</t>
+    <t>인증번호 확인 후 이메일로 임시 비밀번호 전송</t>
+  </si>
+  <si>
+    <t>/find/password/verify</t>
   </si>
   <si>
     <t>/find/password/demand</t>
   </si>
   <si>
-    <t>핸드폰 인증번호 확인</t>
-  </si>
-  <si>
-    <t>/signup/phone/verify</t>
-  </si>
-  <si>
-    <t>핸드폰 번호 중복 체크</t>
-  </si>
-  <si>
-    <t>/signup/phone/check</t>
-  </si>
-  <si>
-    <t>number : String</t>
-  </si>
-  <si>
-    <t>핸드폰 인증번호 발송</t>
-  </si>
-  <si>
-    <t>/signup/phone/demand</t>
-  </si>
-  <si>
-    <t>email : String</t>
-  </si>
-  <si>
-    <t>ID 중복 체크</t>
-  </si>
-  <si>
-    <t>/signup/id/check</t>
-  </si>
-  <si>
-    <t>id : String</t>
-  </si>
-  <si>
-    <t>인증번호 확인 후 이메일로 임시 비밀번호 전송</t>
-  </si>
-  <si>
-    <t>/find/password/verify</t>
+    <t>계정</t>
+  </si>
+  <si>
+    <t>로그아웃</t>
+  </si>
+  <si>
+    <t>/logout</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>/signin</t>
   </si>
   <si>
     <t>비밀번호 변경</t>
   </si>
   <si>
     <t>/change/password</t>
-  </si>
-  <si>
-    <t>로그아웃</t>
-  </si>
-  <si>
-    <t>/logout</t>
-  </si>
-  <si>
-    <t>아이디 찾기</t>
-  </si>
-  <si>
-    <t>/find/id/demand</t>
-  </si>
-  <si>
-    <t>/signup</t>
-  </si>
-  <si>
-    <t>로그인</t>
-  </si>
-  <si>
-    <t>/signin</t>
-  </si>
-  <si>
-    <t>Set-Cookie(key=UserSession)</t>
-  </si>
-  <si>
-    <t>/signup/email/demand</t>
-  </si>
-  <si>
-    <t>이메일 중복 체크</t>
-  </si>
-  <si>
-    <t>/signup/email/check</t>
-  </si>
-  <si>
-    <t>인증번호 확인 후 이메일로 아이디 전송</t>
-  </si>
-  <si>
-    <t>/find/id/verify</t>
-  </si>
-  <si>
-    <t>여행지 리스트</t>
-  </si>
-  <si>
-    <t>카테고리 없는 여행지 리스트 조회</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>/attractions/list/total</t>
-  </si>
-  <si>
-    <t>위시리스트</t>
-  </si>
-  <si>
-    <t>위시리스트 조회</t>
-  </si>
-  <si>
-    <t>/wish</t>
-  </si>
-  <si>
-    <t>content_id : int</t>
-  </si>
-  <si>
-    <t>카테고리 지정된 여행지 리스트 조회</t>
-  </si>
-  <si>
-    <t>/attractions/list</t>
-  </si>
-  <si>
-    <t>위시리스트에서 여행지 삭제</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>위시리스트 추가</t>
-  </si>
-  <si>
-    <t>여행지 정보</t>
-  </si>
-  <si>
-    <t>여행지 세부 정보 조회</t>
-  </si>
-  <si>
-    <t>/attractions/detail</t>
-  </si>
-  <si>
-    <t>여행 모드 내부</t>
-  </si>
-  <si>
-    <t>지도에 여행지 추가</t>
-  </si>
-  <si>
-    <t>/map</t>
-  </si>
-  <si>
-    <t>여행(채팅방) 정보 조회</t>
-  </si>
-  <si>
-    <t>/travel/info</t>
-  </si>
-  <si>
-    <t>topic : String</t>
-  </si>
-  <si>
-    <t>지도에 추가된 핀포인트 조회</t>
-  </si>
-  <si>
-    <t>여행 모드</t>
-  </si>
-  <si>
-    <t>활성화된 여행 리스트 조회</t>
-  </si>
-  <si>
-    <t>/travel</t>
-  </si>
-  <si>
-    <t>여행 초대 수락</t>
-  </si>
-  <si>
-    <t>/travel/accept</t>
-  </si>
-  <si>
-    <t>여행 삭제</t>
-  </si>
-  <si>
-    <t>여행에 다른 사람 초대</t>
-  </si>
-  <si>
-    <t>/travel/invite</t>
-  </si>
-  <si>
-    <t>여행 모드(채팅방) 생성 - 채팅방 참가 포함</t>
-  </si>
-  <si>
-    <t>title : String</t>
-  </si>
-  <si>
-    <t>여행 초대 거절</t>
-  </si>
-  <si>
-    <t>/travel/refuse</t>
-  </si>
-  <si>
-    <t>여행 나가기</t>
-  </si>
-  <si>
-    <t>/travel/quit</t>
-  </si>
-  <si>
-    <t>초대받은 여행 리스트 조회</t>
-  </si>
-  <si>
-    <t>일반 모드</t>
-  </si>
-  <si>
-    <t>유틸리티성 ID 기반 사용자 정보 조회</t>
-  </si>
-  <si>
-    <t>/user</t>
-  </si>
-  <si>
-    <t>친구</t>
-  </si>
-  <si>
-    <t>친구 요청</t>
-  </si>
-  <si>
-    <t>/friend/request</t>
-  </si>
-  <si>
-    <t>dst : String</t>
-  </si>
-  <si>
-    <t>친구 요청 수락</t>
-  </si>
-  <si>
-    <t>/friend/accept</t>
-  </si>
-  <si>
-    <t>requester_id : String</t>
-  </si>
-  <si>
-    <t>친구 요청 거절</t>
-  </si>
-  <si>
-    <t>/friend/refuse</t>
-  </si>
-  <si>
-    <t>친구 삭제</t>
-  </si>
-  <si>
-    <t>/friend/delete</t>
-  </si>
-  <si>
-    <t>마이페이지</t>
-  </si>
-  <si>
-    <t>/mypage</t>
-  </si>
-  <si>
-    <t>프로필 사진 조회</t>
-  </si>
-  <si>
-    <t>/profile-image</t>
-  </si>
-  <si>
-    <t>프로필 이미지 세팅</t>
-  </si>
-  <si>
-    <t>png 이미지 파일</t>
-  </si>
-  <si>
-    <t>사용자 검색</t>
-  </si>
-  <si>
-    <t>/find_user</t>
-  </si>
-  <si>
-    <t>keyword : String</t>
-  </si>
-  <si>
-    <t>친구 요청 목록 조회</t>
-  </si>
-  <si>
-    <t>친구 목록</t>
-  </si>
-  <si>
-    <t>/friend</t>
-  </si>
-  <si>
-    <t>dst : String
-topic : String
-msg : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic : String
-content_id : int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email : String
-code : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id : String
-password : String
-keep_login : boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>id : String
@@ -385,19 +363,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>email : String
-name : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id : String
 current_password : String
 new_password : String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>email : String
-code : String</t>
+    <t>id : String
+password : String
+keep_login : boolean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -407,29 +381,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id : String
-phone_number : String
-email : String
-name : String
-(JSONArray)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>requester_id : String
-date : String
-phone_number : String
-email : String
+    <t>email : String
+code : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email : String
+code : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email : String
 name : String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>dst : String
+topic : String
+msg : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic : String
+content_id : int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_type_id : int
+sort_type : int
+page : int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort_type : int
+page : int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>email : String
-name : String
-id : String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필 이미지 파일</t>
+code : String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -443,6 +433,12 @@
 phone_number : String
 email : String
 name : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic : String
+title : String
+(JSONArray)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -456,9 +452,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>topic : String
-title : String
-(JSONArray)</t>
+    <t>id : String
+phone_number : String
+email : String
+name : String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,13 +464,6 @@
 owner : String
 mapx : double
 mapy : double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id : String
-phone_number : String
-email : String
-name : String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -510,14 +500,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>content_type_id : int
-sort_type : int
-page : int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sort_type : int
-page : int</t>
+    <t>requester_id : String
+date : String
+phone_number : String
+email : String
+name : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id : String
+phone_number : String
+email : String
+name : String
+(JSONArray)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email : String
+name : String
+id : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set-Cookie(key=UserSession)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +534,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -535,6 +544,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -563,7 +581,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -572,6 +590,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,160 +876,156 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="21.75" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="18.25" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
-    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="10" max="10" width="25.125" customWidth="1"/>
+    <col min="11" max="11" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="1">
+        <v>201</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="1">
-        <v>201</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="H3" s="1">
         <v>201</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" s="1">
-        <v>204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H4" s="1">
         <v>201</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" s="1">
         <v>204</v>
@@ -1019,31 +1036,31 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1">
         <v>201</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" s="1">
         <v>204</v>
@@ -1054,34 +1071,34 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H6" s="1">
         <v>201</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1089,241 +1106,241 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1">
         <v>201</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" s="1">
-        <v>204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H8" s="1">
         <v>201</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" s="1">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>117</v>
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H9" s="1">
         <v>201</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" s="1">
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="K10" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1">
+        <v>201</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="1">
-        <v>201</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="1">
+    <row r="12" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1">
+        <v>200</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="1">
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="99" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" s="1">
-        <v>201</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>114</v>
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H13" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="K13" s="1">
         <v>204</v>
@@ -1331,34 +1348,34 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H14" s="1">
         <v>201</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1366,104 +1383,104 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H15" s="1">
         <v>201</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K15" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>113</v>
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H16" s="1">
         <v>201</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K16" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>134</v>
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1">
         <v>200</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>132</v>
+        <v>14</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="K17" s="1">
         <v>204</v>
@@ -1471,174 +1488,174 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H18" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K18" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>133</v>
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1">
         <v>200</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>131</v>
+        <v>14</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="K19" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20" s="1">
         <v>200</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1">
+        <v>200</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="198" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="1">
-        <v>201</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="214.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="H22" s="1">
         <v>201</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -1646,34 +1663,34 @@
     </row>
     <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H23" s="1">
         <v>201</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -1681,22 +1698,22 @@
     </row>
     <row r="24" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>68</v>
@@ -1705,33 +1722,33 @@
         <v>200</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>68</v>
@@ -1740,80 +1757,80 @@
         <v>200</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>128</v>
+        <v>14</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="K25" s="1">
-        <v>204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="H26" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>127</v>
+        <v>14</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="K26" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>68</v>
       </c>
       <c r="H27" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -1821,69 +1838,69 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>68</v>
       </c>
       <c r="H28" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>111</v>
+        <v>14</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="H29" s="1">
         <v>201</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -1891,524 +1908,524 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H30" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H31" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H32" s="1">
         <v>200</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="K32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="132" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="1">
+        <v>201</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="1">
-        <v>200</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K33" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="H34" s="1">
         <v>201</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>125</v>
+        <v>14</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>91</v>
+        <v>14</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="H35" s="1">
         <v>201</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="H36" s="1">
         <v>201</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="H37" s="1">
         <v>201</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H38" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="K38" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H39" s="1">
         <v>200</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>124</v>
+        <v>14</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>102</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="H40" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="K40" s="1">
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" s="1">
+        <v>201</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="H41" s="1">
-        <v>201</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="1">
+        <v>201</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="1">
-        <v>200</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K42" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="99" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="H43" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="K43" s="1">
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="H44" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>120</v>
+        <v>14</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="K44" s="1">
         <v>204</v>
